--- a/Review_Record_List.xlsx
+++ b/Review_Record_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9840"/>
+    <workbookView windowWidth="22943" windowHeight="9984"/>
   </bookViews>
   <sheets>
     <sheet name="Review_Record_List" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t xml:space="preserve">Review Record List </t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 18 hr</t>
+  </si>
+  <si>
+    <t>sdfsdfsdfsd</t>
   </si>
   <si>
     <t xml:space="preserve">  '2.</t>
@@ -113,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,6 +147,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -152,6 +177,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -160,6 +200,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -168,6 +231,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -177,7 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,66 +270,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -259,14 +278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,14 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,90 +306,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,30 +474,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -466,24 +487,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,6 +791,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +819,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -816,45 +884,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -863,46 +892,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,130 +915,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,7 +1460,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1544,21 +1547,23 @@
       <c r="H9" s="18">
         <v>1</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="J9" s="27"/>
     </row>
     <row r="10" ht="45" customHeight="1" spans="3:10">
       <c r="C10" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="20">
         <v>46</v>
@@ -1571,16 +1576,16 @@
     </row>
     <row r="11" ht="51" customHeight="1" spans="3:10">
       <c r="C11" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="20">
         <v>4</v>
@@ -1593,16 +1598,16 @@
     </row>
     <row r="12" ht="55" customHeight="1" spans="3:10">
       <c r="C12" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" s="20">
         <v>24</v>
@@ -1611,19 +1616,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="29"/>
     </row>
     <row r="13" ht="54" customHeight="1" spans="3:10">
       <c r="C13" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -1633,7 +1638,7 @@
     </row>
     <row r="14" ht="34" customHeight="1" spans="3:10">
       <c r="C14" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>

--- a/Review_Record_List.xlsx
+++ b/Review_Record_List.xlsx
@@ -57,7 +57,7 @@
     <t xml:space="preserve"> 18 hr</t>
   </si>
   <si>
-    <t>sdfsdfsdfsd</t>
+    <t>Edit</t>
   </si>
   <si>
     <t xml:space="preserve">  '2.</t>
@@ -330,163 +330,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,58 +921,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -981,64 +981,64 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1460,7 +1460,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Review_Record_List.xlsx
+++ b/Review_Record_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t xml:space="preserve">Review Record List </t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>20 hr</t>
+  </si>
+  <si>
+    <t>3 rd time Edit</t>
   </si>
   <si>
     <t xml:space="preserve">  '3.</t>
@@ -330,6 +333,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,6 +357,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,6 +405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,6 +459,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,30 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,124 +924,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1571,21 +1574,23 @@
       <c r="H10" s="20">
         <v>1</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="28"/>
     </row>
     <row r="11" ht="51" customHeight="1" spans="3:10">
       <c r="C11" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="20">
         <v>4</v>
@@ -1598,16 +1603,16 @@
     </row>
     <row r="12" ht="55" customHeight="1" spans="3:10">
       <c r="C12" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="20">
         <v>24</v>
@@ -1616,19 +1621,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="29"/>
     </row>
     <row r="13" ht="54" customHeight="1" spans="3:10">
       <c r="C13" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -1638,7 +1643,7 @@
     </row>
     <row r="14" ht="34" customHeight="1" spans="3:10">
       <c r="C14" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>

--- a/Review_Record_List.xlsx
+++ b/Review_Record_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t xml:space="preserve">Review Record List </t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>6hr</t>
+  </si>
+  <si>
+    <t>4 th time edit</t>
   </si>
   <si>
     <t xml:space="preserve">  '4.</t>
@@ -1463,7 +1466,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1598,21 +1601,23 @@
       <c r="H11" s="20">
         <v>2</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="J11" s="28"/>
     </row>
     <row r="12" ht="55" customHeight="1" spans="3:10">
       <c r="C12" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" s="20">
         <v>24</v>
@@ -1621,19 +1626,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="29"/>
     </row>
     <row r="13" ht="54" customHeight="1" spans="3:10">
       <c r="C13" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -1643,7 +1648,7 @@
     </row>
     <row r="14" ht="34" customHeight="1" spans="3:10">
       <c r="C14" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
